--- a/biology/Botanique/Mémoires_de_l'Institut_français_d'Afrique_noire/Mémoires_de_l'Institut_français_d'Afrique_noire.xlsx
+++ b/biology/Botanique/Mémoires_de_l'Institut_français_d'Afrique_noire/Mémoires_de_l'Institut_français_d'Afrique_noire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9moires_de_l%27Institut_fran%C3%A7ais_d%27Afrique_noire</t>
+          <t>Mémoires_de_l'Institut_français_d'Afrique_noire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mémoires de l'Institut français d'Afrique noire, (abrégé: Inst. Franc. Afrique Noire)[3], est une revue éditée à Paris et à Dakar. 74 numéros ont été publiés des 1939 à 1965[4]. Elle a été remplacée par Mémoires de l'Institut fondamental d'Afrique noire dans la foulée de l'indépendance du Sénégal en 1960[1],[5].
-Le contenu des publications couvre de nombreuses disciplines scientifiques : biologie, géologie, préhistoire, sciences humaines et sociales[1]…
+Mémoires de l'Institut français d'Afrique noire, (abrégé: Inst. Franc. Afrique Noire), est une revue éditée à Paris et à Dakar. 74 numéros ont été publiés des 1939 à 1965. Elle a été remplacée par Mémoires de l'Institut fondamental d'Afrique noire dans la foulée de l'indépendance du Sénégal en 1960,.
+Le contenu des publications couvre de nombreuses disciplines scientifiques : biologie, géologie, préhistoire, sciences humaines et sociales…
 </t>
         </is>
       </c>
